--- a/cv-main/data/cv_data.xlsx
+++ b/cv-main/data/cv_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisdelgado\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3B648B-7264-480D-B863-10DB8C13485D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF55EF-318E-4019-AD6B-57C7BD57EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
+    <workbookView xWindow="16080" yWindow="12435" windowWidth="29040" windowHeight="15840" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="appointments" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="teaching" sheetId="9" r:id="rId9"/>
     <sheet name="training" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="293">
   <si>
     <t>role</t>
   </si>
@@ -680,9 +683,6 @@
     <t>Oral presentation at the annual Ecuadorian Ideas That Matter conference, Melbourne, Australia</t>
   </si>
   <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
     <t>Analytical</t>
   </si>
   <si>
@@ -695,24 +695,15 @@
     <t>R (advanced)</t>
   </si>
   <si>
-    <t>Git/Github</t>
-  </si>
-  <si>
     <t>Univariate/multivariate data analysis</t>
   </si>
   <si>
-    <t>RMarkdown</t>
-  </si>
-  <si>
     <t>LaTeX</t>
   </si>
   <si>
     <t>Reproducible research</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>training</t>
   </si>
   <si>
@@ -749,151 +740,190 @@
     <t>Part time Professor, Engineering faculty, \href{https://www.uceva.edu.co/facultad-de-ingenieria/ingenieria-agropecuaria/}{Agropecuary Engineering program \faExternalLink}</t>
   </si>
   <si>
+    <t>Palmira, Colombia</t>
+  </si>
+  <si>
+    <t>The Alliance Bioversity International and CIAT - Manpower group</t>
+  </si>
+  <si>
+    <t>Agroindustrial Engineering</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia Sede Palmira</t>
+  </si>
+  <si>
+    <t>MSc. Agricultural Sciences</t>
+  </si>
+  <si>
+    <t>Best master Thesis Award Laureate (2019)</t>
+  </si>
+  <si>
+    <t>\textbf{Thesis}: Caracterización de oleorresinas de ají Tabasco y Cayenne bajo diferentes niveles de nitrógeno y humedad en el suelo \href{https://repositorio.unal.edu.co/handle/unal/76744}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>Research Assistant Fellow, Quality postharvest lab, Cassava program</t>
+  </si>
+  <si>
+    <t>Provide support for processing raw roots, textural analysis and optimal cooking time evaluations of breeding populations of cassava program</t>
+  </si>
+  <si>
+    <t>Statistical data analysis</t>
+  </si>
+  <si>
+    <t>Feb 2022</t>
+  </si>
+  <si>
+    <t>Trained panellist staff on sensory attributes of boiled cassava roots and  constitude the first sensory panel of breeding cassava program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide support for data clean, curation, statistical analysis and modelling of RTB Foods project data derived </t>
+  </si>
+  <si>
+    <t>Dec 2021--Feb 2022</t>
+  </si>
+  <si>
+    <t>Phenotype database curation/management</t>
+  </si>
+  <si>
+    <t>Linux (intermediate)</t>
+  </si>
+  <si>
+    <t>Aug 2020--Present</t>
+  </si>
+  <si>
+    <t>Part time Professor</t>
+  </si>
+  <si>
+    <t>Phenotypic modelling of multi-enviroment trials</t>
+  </si>
+  <si>
+    <t>Genomic Prediction and Selection</t>
+  </si>
+  <si>
+    <t>NextGen Cassava Breeding Project</t>
+  </si>
+  <si>
+    <t>Complete Python Developer in 2021: Zero to Mastery</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Design of experiments for optimization</t>
+  </si>
+  <si>
+    <t>Wageningen University</t>
+  </si>
+  <si>
+    <t>Linear mixed models</t>
+  </si>
+  <si>
+    <t>Invited to speak at the 1 st Ibero-American Congress on Agrifood Sciences, SENA</t>
+  </si>
+  <si>
+    <t>Agro-industrial trends in the uses of capsicum species</t>
+  </si>
+  <si>
+    <t>Jun 2022</t>
+  </si>
+  <si>
+    <t>Jul 2022</t>
+  </si>
+  <si>
+    <t>Jul 2022--Present</t>
+  </si>
+  <si>
+    <t>Dec 2020--Jun 2022</t>
+  </si>
+  <si>
+    <t>Curation and analysis of historical data in the past 50 years from the Cassava Program.</t>
+  </si>
+  <si>
     <t>Research Assistant Fellow</t>
   </si>
   <si>
-    <t>Palmira, Colombia</t>
-  </si>
-  <si>
-    <t>Part time Professor, Engineering faculty</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia Sede Palmira \href{https://www.palmira.unal.edu.co/}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>Unidad Central del Valle  \href{https://www.uceva.edu.co//}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>The Alliance Bioversity International and CIAT - Manpower group</t>
-  </si>
-  <si>
-    <t>Agroindustrial Engineering</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia Sede Palmira</t>
-  </si>
-  <si>
-    <t>MSc. Agricultural Sciences</t>
-  </si>
-  <si>
-    <t>Best master Thesis Award Laureate (2019)</t>
-  </si>
-  <si>
-    <t>\textbf{Thesis}: Caracterización de oleorresinas de ají Tabasco y Cayenne bajo diferentes niveles de nitrógeno y humedad en el suelo \href{https://repositorio.unal.edu.co/handle/unal/76744}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>Research Assistant Fellow, Quality postharvest lab, Cassava program</t>
-  </si>
-  <si>
-    <t>Alliance Bioversity International and CIAT</t>
-  </si>
-  <si>
-    <t>Provide support for processing raw roots, textural analysis and optimal cooking time evaluations of breeding populations of cassava program</t>
-  </si>
-  <si>
-    <t>Statistical data analysis</t>
-  </si>
-  <si>
-    <t>Statistical data analysis, Increasing sustainable competitiveness in hillside agriculture throughout the department, Valle del Cauca, west, \href{https://ladera.palmira.unal.edu.co/}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>Feb 2022</t>
-  </si>
-  <si>
-    <t>Trained panellist staff on sensory attributes of boiled cassava roots and  constitude the first sensory panel of breeding cassava program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide support for data clean, curation, statistical analysis and modelling of RTB Foods project data derived </t>
-  </si>
-  <si>
-    <t>Dec 2021--Feb 2022</t>
-  </si>
-  <si>
-    <t>Lead the statistical data analysis of avocado Hass demostration plots located in Roldanillo municipality</t>
-  </si>
-  <si>
-    <t>Lead the statistical data analysis of blackberries "Castilla sin espinas", "San Antonio" and "Brazos" demostration plots located in Pradera municipality</t>
-  </si>
-  <si>
-    <t>Texture evaluation</t>
-  </si>
-  <si>
-    <t>Sensory attributes evaluation</t>
-  </si>
-  <si>
-    <t>Instrumental cooking analysis</t>
-  </si>
-  <si>
-    <t>Starch extract</t>
-  </si>
-  <si>
-    <t>Phenotype database curation/management</t>
-  </si>
-  <si>
-    <t>Phyton (basic)</t>
-  </si>
-  <si>
-    <t>Linux (intermediate)</t>
-  </si>
-  <si>
-    <t>Aug 2020--Present</t>
-  </si>
-  <si>
-    <t>Engineering faculty, Agropecuary engineering program, courses included: Research tools I and Experimental design</t>
-  </si>
-  <si>
-    <t>Part time Professor</t>
-  </si>
-  <si>
-    <t>Feb 2020--Dec 2021</t>
-  </si>
-  <si>
-    <t>Engineering and Administration faculty, Graduate Agroindustrial Engineering program, courses included: Experimental strategies in agroindustrial Engineering</t>
-  </si>
-  <si>
-    <t>Phenotypic modelling of multi-enviroment trials</t>
-  </si>
-  <si>
-    <t>Genomic Prediction and Selection</t>
-  </si>
-  <si>
-    <t>NextGen Cassava Breeding Project</t>
-  </si>
-  <si>
-    <t>Complete Python Developer in 2021: Zero to Mastery</t>
-  </si>
-  <si>
-    <t>Udemy</t>
-  </si>
-  <si>
-    <t>Design of experiments for optimization</t>
-  </si>
-  <si>
-    <t>R for data science with Tidyverse</t>
-  </si>
-  <si>
-    <t>Basic R programming language and introduction to LaTeX</t>
-  </si>
-  <si>
-    <t>Universidad de San Buenaventura Cali</t>
-  </si>
-  <si>
-    <t>Cali, Colombia</t>
-  </si>
-  <si>
-    <t>Wageningen University</t>
-  </si>
-  <si>
-    <t>Linear mixed models</t>
-  </si>
-  <si>
-    <t>Exponent texture software</t>
-  </si>
-  <si>
-    <t>Invited to speak at the 1 st Ibero-American Congress on Agrifood Sciences, SENA</t>
-  </si>
-  <si>
-    <t>Agro-industrial trends in the uses of capsicum species</t>
+    <t>Develop the standard analysis pipelines for yield trial data, quality data and genotypic data.</t>
+  </si>
+  <si>
+    <t>Statistical data analyst,  Cassava program</t>
+  </si>
+  <si>
+    <t>The Alliance Bioversity International and CIAT</t>
+  </si>
+  <si>
+    <t>Part time Graduate Professor, Engineering faculty, \href{https://www.palmira.unal.edu.co/DoctCTAlimentos/}{PhD program: Food science ant Technology \faExternalLink}</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>Aug 2022</t>
+  </si>
+  <si>
+    <t>Oct 2022</t>
+  </si>
+  <si>
+    <t>Statistical analysis of Hass avocado demonstration plots in Roldanillo municipality.</t>
+  </si>
+  <si>
+    <t>Statistical analysis of blackberry crop demonstration plots located in the municipality of Pradera</t>
+  </si>
+  <si>
+    <t>Calculating the genetic gain for all the breeding populations the Cassava Program has created.</t>
+  </si>
+  <si>
+    <t>Python (intermediate)</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Feb 2020--Jul 2023</t>
+  </si>
+  <si>
+    <t>Jul 2023</t>
+  </si>
+  <si>
+    <t>Engineering and Administration faculty, PhD program: Food science ant Technology, courses included: Analysis and Experimental design</t>
+  </si>
+  <si>
+    <t>Engineering faculty, Agropecuary engineering program, courses included: Research tools I and Experimental design with R programming</t>
+  </si>
+  <si>
+    <t>Data Bootcamp for Genomic Prediction in Plant Breeding</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>Ghent, Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical data analyst, Proyecto Incremento de la competitividad sostenible en la agricultura de ladera en todo el departamento, Valle del Cauca, Occidente. </t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia Sede Palmira.</t>
+  </si>
+  <si>
+    <t>Unidad Central del Valle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad Central del Valle  </t>
+  </si>
+  <si>
+    <t>Visiting professor, International Sustainable Agriculture Training Course -\href{https://www.uceva.edu.co/facultades/facultad-de-ingenieria/noticiasfacultadingenieria/pregrado-en-agropecuaria-lidera-curso-internacional-en-formacion-agropecuaria-sostenible/}{R programming module.\faExternalLink}</t>
+  </si>
+  <si>
+    <t>Statistical data analyst - Cassava program. \href{https://alliancebioversityciat.org/who-we-are/luis-fernando-delgado}{\faExternalLink}</t>
   </si>
 </sst>
 </file>
@@ -937,14 +967,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,7 +994,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1259,19 +1290,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1B3CC-1472-8E44-9C15-09D3FC2792ED}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.296875" customWidth="1"/>
+    <col min="1" max="1" width="120.375" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1291,99 +1322,136 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2637CF-4597-3449-ABB6-A2E34950A21B}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1395,40 +1463,40 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="D2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
         <v>114</v>
       </c>
       <c r="D3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -1437,12 +1505,12 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
@@ -1451,32 +1519,18 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
       </c>
       <c r="D6">
         <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7">
-        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -1493,9 +1547,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
@@ -1512,52 +1566,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="s">
         <v>236</v>
       </c>
-      <c r="E3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1573,13 +1627,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1607,7 +1661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1649,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1663,7 +1717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1677,21 +1731,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1705,7 +1759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1719,7 +1773,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1733,7 +1787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1801,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1761,7 +1815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1789,7 +1843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1803,7 +1857,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1817,7 +1871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1831,7 +1885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1855,12 +1909,12 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
@@ -1874,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1888,7 +1942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1902,7 +1956,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1916,7 +1970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1930,7 +1984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -1954,12 +2008,12 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1982,30 +2036,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2028,7 +2082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2048,7 +2102,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2071,9 +2125,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
@@ -2082,16 +2136,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2114,7 +2168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2137,7 +2191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2160,7 +2214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2183,7 +2237,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -2203,7 +2257,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2226,7 +2280,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2249,7 +2303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -2272,7 +2326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -2295,7 +2349,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -2318,7 +2372,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2341,7 +2395,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -2364,7 +2418,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -2387,7 +2441,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -2410,7 +2464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -2433,7 +2487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -2456,7 +2510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -2488,13 +2542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8243C-FE0E-ED41-84A9-46B817DC41A8}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>173</v>
       </c>
@@ -2508,7 +2562,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -2522,7 +2576,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -2536,7 +2590,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -2550,7 +2604,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -2564,7 +2618,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -2578,7 +2632,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -2592,7 +2646,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -2606,7 +2660,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>189</v>
       </c>
@@ -2620,7 +2674,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -2634,7 +2688,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>192</v>
       </c>
@@ -2648,7 +2702,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -2662,12 +2716,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="C13">
         <v>2017</v>
@@ -2676,7 +2730,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -2690,7 +2744,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -2704,7 +2758,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>196</v>
       </c>
@@ -2718,7 +2772,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -2732,7 +2786,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>201</v>
       </c>
@@ -2746,7 +2800,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -2760,7 +2814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -2774,7 +2828,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -2788,7 +2842,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>201</v>
       </c>
@@ -2802,7 +2856,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -2816,7 +2870,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -2837,15 +2891,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2522634-3670-EB4F-A94A-C1193288D818}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="125.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2868,119 +2931,188 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>156</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" t="s">
         <v>242</v>
       </c>
-      <c r="C5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
+      <c r="E9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2990,18 +3122,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6FBE1E-3AAD-8A49-8DD3-4592F02B3237}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>212</v>
       </c>
@@ -3011,64 +3143,49 @@
       <c r="C1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
-        <v>261</v>
-      </c>
       <c r="C2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3081,12 +3198,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3109,15 +3226,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>167</v>
@@ -3126,33 +3243,33 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/cv-main/data/cv_data.xlsx
+++ b/cv-main/data/cv_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisdelgado\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/luis_delgado_cgiar_org/Documents/Data Analysis/Curriculum-Vitae/cv-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBF55EF-318E-4019-AD6B-57C7BD57EA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C7F07B88-FDF1-4B7E-907A-4340CBC99998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F578AC84-2DD6-45D9-A40F-4EE436B11DB6}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="12435" windowWidth="29040" windowHeight="15840" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
+    <workbookView xWindow="44880" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="appointments" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="302">
   <si>
     <t>role</t>
   </si>
@@ -572,358 +572,387 @@
     <t>include</t>
   </si>
   <si>
-    <t>Understanding the factors underlying malaria resurgence in East Sepik, Papua New Guinea: a preliminary analysis</t>
-  </si>
-  <si>
-    <t>Invited to speak at the Australian Centre for Excellence in Malaria Elimination webinar series. \href{https://www.acreme.edu.au/understanding-the-factors-underlying-malaria-resurgence-in-east-sepik-papua-new-guinea-a-preliminary-analysis/}{See recording \faExternalLink}</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Resurgence of \textit{Plasmodium falciparum} after an outbreak in Ecuador is driven by local transmission and parasite evolution via recombination</t>
+  </si>
+  <si>
+    <t>Oral presentation at the Malaria in Melbourne conference, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Evolution of \textit{Plasmodium falciparum} after an outbreak facilitates low endemicity malaria transmission in Ecuador</t>
+  </si>
+  <si>
+    <t>Oral presentation at the annual meeting of the Australian Society of Parasitology, Adelaide, Australia</t>
+  </si>
+  <si>
+    <t>Why are adults still infected in malaria-endemic areas? Insights from the epidemiology of \textit{P. falciparum var} genes</t>
+  </si>
+  <si>
+    <t>Oral presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, New Orleans, USA</t>
+  </si>
+  <si>
+    <t>Extreme diversity and population structure of var genes can explain why immunity to the blood stages of \textit{Plasmodium falciparum} is non-sterilizing</t>
+  </si>
+  <si>
+    <t>Poster presentation at the 1st Malaria World Congress in Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Poster presentation at the Genomic Epidemiology of Malaria Conference in Hinxton, UK</t>
+  </si>
+  <si>
+    <t>Temporal dynamics of \textit{Plasmodium falciparum} through the lens of \textit{var} genomics</t>
+  </si>
+  <si>
+    <t>Oral presentation at the Malaria Seminar Series in Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Why is it difficult to control malaria? (¿Por qué es dificil controlar la malaria?)</t>
+  </si>
+  <si>
+    <t>Invited to speak at the Catholic University of Quito, Center for Research on Health in Latin America seminar series in Quito, Ecuador</t>
+  </si>
+  <si>
+    <t>\textit{Var} code: a new molecular epidemiology tool for monitoring \textit{Plasmodium falciparum} in a high transmission area of Ghana, West Africa</t>
+  </si>
+  <si>
+    <t>Selected to participate in the Young Investigator Award Poster Session of the American Society of Tropical Medicine and Hygiene, Atlanta, USA</t>
+  </si>
+  <si>
+    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, Atlanta, USA</t>
+  </si>
+  <si>
+    <t>Molecular epidemiology and population structure of the \textit{Plasmodium falciparum} reservoir in an area of seasonal malaria transmission in Bongo District, Ghana</t>
+  </si>
+  <si>
+    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, USA</t>
+  </si>
+  <si>
+    <t>\textit{Var} gene diversity of \textit{Plasmodium falciparum} clinical isolates among six sentinel health sites across Uganda</t>
+  </si>
+  <si>
+    <t>Poster presentation at the Molecular Approaches to Malaria conference, Lorne, Australia</t>
+  </si>
+  <si>
+    <t>What are the population genetic characteristics of \textit{Plasmodium falciparum} seasonal malaria in West Africa?</t>
+  </si>
+  <si>
+    <t>Oral presentation at the annual School of BioSciences Postgraduate Symposium, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, Philadelphia, USA</t>
+  </si>
+  <si>
+    <t>Poster presentation at the Johns Hopkins Malaria Research Institute Future of Malaria Research annual meeting, Baltimore, USA</t>
+  </si>
+  <si>
+    <t>Oral presentation at the Malaria in Melbourne conference, Australia</t>
+  </si>
+  <si>
+    <t>Genetic diversity and population structure of \textit{Plasmodium falciparum} isolates from a high transmission setting in Bongo District, Ghana</t>
+  </si>
+  <si>
+    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, New Orleans, USA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is it difficult to eradicate malaria? </t>
+  </si>
+  <si>
+    <t>Oral presentation at the annual Ecuadorian Ideas That Matter conference, Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>Analytical</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Software/Tools</t>
+  </si>
+  <si>
+    <t>R (advanced)</t>
+  </si>
+  <si>
+    <t>Univariate/multivariate data analysis</t>
+  </si>
+  <si>
+    <t>LaTeX</t>
+  </si>
+  <si>
+    <t>Reproducible research</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>Ideas Jam Award</t>
+  </si>
+  <si>
+    <t>Oct 2020</t>
+  </si>
+  <si>
+    <t>Jul 2021</t>
+  </si>
+  <si>
+    <t>Jul 2021--Present</t>
+  </si>
+  <si>
+    <t>Member, Web-based applications working group</t>
+  </si>
+  <si>
+    <t>\href{https://youtu.be/utSVelCdcvU}{Panelist \faExternalLink}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panelist on the panel discussion "Lessons learned from COVID-19 variants" (Lecciones aprendidas con variantes COVID-19) hosted by USFQ and national newspaper El Universo </t>
+  </si>
+  <si>
+    <t>Awarded A\$10,000 as AI for the project: Superstars in STEM High School Program</t>
+  </si>
+  <si>
+    <t>Tulúa, Colombia</t>
+  </si>
+  <si>
+    <t>Part time Professor, Engineering faculty, \href{https://www.uceva.edu.co/facultad-de-ingenieria/ingenieria-agropecuaria/}{Agropecuary Engineering program \faExternalLink}</t>
+  </si>
+  <si>
+    <t>Palmira, Colombia</t>
+  </si>
+  <si>
+    <t>Agroindustrial Engineering</t>
+  </si>
+  <si>
+    <t>Universidad Nacional de Colombia Sede Palmira</t>
+  </si>
+  <si>
+    <t>MSc. Agricultural Sciences</t>
+  </si>
+  <si>
+    <t>Best master Thesis Award Laureate (2019)</t>
+  </si>
+  <si>
+    <t>Research Assistant Fellow, Quality postharvest lab, Cassava program</t>
+  </si>
+  <si>
+    <t>Feb 2022</t>
+  </si>
+  <si>
+    <t>Dec 2021--Feb 2022</t>
+  </si>
+  <si>
+    <t>Phenotype database curation/management</t>
+  </si>
+  <si>
+    <t>Linux (intermediate)</t>
+  </si>
+  <si>
+    <t>Aug 2020--Present</t>
+  </si>
+  <si>
+    <t>Part time Professor</t>
+  </si>
+  <si>
+    <t>Phenotypic modelling of multi-enviroment trials</t>
+  </si>
+  <si>
+    <t>Genomic Prediction and Selection</t>
+  </si>
+  <si>
+    <t>NextGen Cassava Breeding Project</t>
+  </si>
+  <si>
+    <t>Udemy</t>
+  </si>
+  <si>
+    <t>Design of experiments for optimization</t>
+  </si>
+  <si>
+    <t>Wageningen University</t>
+  </si>
+  <si>
+    <t>Linear mixed models</t>
+  </si>
+  <si>
+    <t>Invited to speak at the 1 st Ibero-American Congress on Agrifood Sciences, SENA</t>
+  </si>
+  <si>
+    <t>Agro-industrial trends in the uses of capsicum species</t>
+  </si>
+  <si>
+    <t>Jun 2022</t>
+  </si>
+  <si>
+    <t>Jul 2022</t>
+  </si>
+  <si>
+    <t>Jul 2022--Present</t>
+  </si>
+  <si>
+    <t>Dec 2020--Jun 2022</t>
+  </si>
+  <si>
+    <t>The Alliance Bioversity International and CIAT</t>
+  </si>
+  <si>
+    <t>Python (intermediate)</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Feb 2020--Jul 2023</t>
+  </si>
+  <si>
+    <t>Jul 2023</t>
+  </si>
+  <si>
+    <t>Data Bootcamp for Genomic Prediction in Plant Breeding</t>
+  </si>
+  <si>
+    <t>University of Minnesota</t>
+  </si>
+  <si>
+    <t>Ghent, Belgium</t>
+  </si>
+  <si>
+    <t>Unidad Central del Valle.</t>
+  </si>
+  <si>
+    <t>\textbf{Thesis}: Characterization of Tabasco and Cayenne chile oleoresins under different nitrogen and soil moisture levels. \href{https://repositorio.unal.edu.co/handle/unal/76744}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>Genomewide Markers in plant breeding</t>
+  </si>
+  <si>
+    <t>Data scientist - Cassava program. \href{https://alliancebioversityciat.org/who-we-are/luis-fernando-delgado}{\faExternalLink}</t>
+  </si>
+  <si>
+    <t>International sustainable agriculture training course</t>
+  </si>
+  <si>
+    <t>Presented at Universidad Central del Valle del Cauca for undergraduated students from Colombia and Guatemala</t>
+  </si>
+  <si>
+    <t>Asreml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented at the Alliance Science Seminar Series \href{https://youtu.be/keIB6qb80Wk?si=-cva6XBWGnyq6vga/}{See recording \faExternalLink} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster presentation at The African Plant Breeders Association Conference
+3rd Edition \href{https://hdl.handle.net/10568/132698}{See poster \faExternalLink} </t>
+  </si>
+  <si>
+    <t>Enhancing the Nutritional Value and Agronomic Performance of Tuber Crops: Making Genetic Gains in Biofortified Cassava Over a Decade at CIAT, 
+Ben Guerir, Morocco.</t>
+  </si>
+  <si>
+    <t>Data analysis pipeline in cassava breeding, Cali, Colombia</t>
+  </si>
+  <si>
+    <t>Adding value and minimizing losses: Post-harvest deterioration in Cassava, Cali, Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented at the Cassava retreat 2023 \href{https://hdl.handle.net/10568/131658}{See slides \faExternalLink} </t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>rstudio::global(2021) \%&gt;\% filter(workshops == “diversity scholars”) \%&gt;\% summarize()</t>
-  </si>
-  <si>
-    <t>Presented at the R-Ladies Melbourne meet-up, \href{https://shaziaruybal.github.io/rstudioglobal2021-divscholar-recap/}{slides \faExternalLink}</t>
-  </si>
-  <si>
-    <t>Longitudinal trends in the epidemiology and transmission of \textit{P. falciparum} and \textit{P. vivax} in East Sepik, Papua New Guinea after improved malaria control efforts</t>
-  </si>
-  <si>
-    <t>Poster presentation at the Molecular Approaches for Malaria conference, Lorne, Australia</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Resurgence of \textit{Plasmodium falciparum} after an outbreak in Ecuador is driven by local transmission and parasite evolution via recombination</t>
-  </si>
-  <si>
-    <t>Oral presentation at the Malaria in Melbourne conference, Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>Evolution of \textit{Plasmodium falciparum} after an outbreak facilitates low endemicity malaria transmission in Ecuador</t>
-  </si>
-  <si>
-    <t>Oral presentation at the annual meeting of the Australian Society of Parasitology, Adelaide, Australia</t>
-  </si>
-  <si>
-    <t>Why are adults still infected in malaria-endemic areas? Insights from the epidemiology of \textit{P. falciparum var} genes</t>
-  </si>
-  <si>
-    <t>Oral presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, New Orleans, USA</t>
-  </si>
-  <si>
-    <t>Extreme diversity and population structure of var genes can explain why immunity to the blood stages of \textit{Plasmodium falciparum} is non-sterilizing</t>
-  </si>
-  <si>
-    <t>Poster presentation at the 1st Malaria World Congress in Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>Poster presentation at the Genomic Epidemiology of Malaria Conference in Hinxton, UK</t>
-  </si>
-  <si>
-    <t>Temporal dynamics of \textit{Plasmodium falciparum} through the lens of \textit{var} genomics</t>
-  </si>
-  <si>
-    <t>Oral presentation at the Malaria Seminar Series in Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>Why is it difficult to control malaria? (¿Por qué es dificil controlar la malaria?)</t>
-  </si>
-  <si>
-    <t>Invited to speak at the Catholic University of Quito, Center for Research on Health in Latin America seminar series in Quito, Ecuador</t>
-  </si>
-  <si>
-    <t>\textit{Var} code: a new molecular epidemiology tool for monitoring \textit{Plasmodium falciparum} in a high transmission area of Ghana, West Africa</t>
-  </si>
-  <si>
-    <t>Selected to participate in the Young Investigator Award Poster Session of the American Society of Tropical Medicine and Hygiene, Atlanta, USA</t>
-  </si>
-  <si>
-    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, Atlanta, USA</t>
-  </si>
-  <si>
-    <t>Molecular epidemiology and population structure of the \textit{Plasmodium falciparum} reservoir in an area of seasonal malaria transmission in Bongo District, Ghana</t>
-  </si>
-  <si>
-    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, USA</t>
-  </si>
-  <si>
-    <t>\textit{Var} gene diversity of \textit{Plasmodium falciparum} clinical isolates among six sentinel health sites across Uganda</t>
-  </si>
-  <si>
-    <t>Poster presentation at the Molecular Approaches to Malaria conference, Lorne, Australia</t>
-  </si>
-  <si>
-    <t>What are the population genetic characteristics of \textit{Plasmodium falciparum} seasonal malaria in West Africa?</t>
-  </si>
-  <si>
-    <t>Oral presentation at the annual School of BioSciences Postgraduate Symposium, Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, Philadelphia, USA</t>
-  </si>
-  <si>
-    <t>Poster presentation at the Johns Hopkins Malaria Research Institute Future of Malaria Research annual meeting, Baltimore, USA</t>
-  </si>
-  <si>
-    <t>Oral presentation at the Malaria in Melbourne conference, Australia</t>
-  </si>
-  <si>
-    <t>Genetic diversity and population structure of \textit{Plasmodium falciparum} isolates from a high transmission setting in Bongo District, Ghana</t>
-  </si>
-  <si>
-    <t>Poster presentation at the annual meeting of the American Society of Tropical Medicine and Hygiene, New Orleans, USA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is it difficult to eradicate malaria? </t>
-  </si>
-  <si>
-    <t>Oral presentation at the annual Ecuadorian Ideas That Matter conference, Melbourne, Australia</t>
-  </si>
-  <si>
-    <t>Analytical</t>
-  </si>
-  <si>
-    <t>Programming</t>
-  </si>
-  <si>
-    <t>Software/Tools</t>
-  </si>
-  <si>
-    <t>R (advanced)</t>
-  </si>
-  <si>
-    <t>Univariate/multivariate data analysis</t>
-  </si>
-  <si>
-    <t>LaTeX</t>
-  </si>
-  <si>
-    <t>Reproducible research</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>Ideas Jam Award</t>
-  </si>
-  <si>
-    <t>Oct 2020</t>
-  </si>
-  <si>
-    <t>Jul 2021</t>
-  </si>
-  <si>
-    <t>Jul 2021--Present</t>
-  </si>
-  <si>
-    <t>Member, Web-based applications working group</t>
-  </si>
-  <si>
-    <t>\href{https://youtu.be/utSVelCdcvU}{Panelist \faExternalLink}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panelist on the panel discussion "Lessons learned from COVID-19 variants" (Lecciones aprendidas con variantes COVID-19) hosted by USFQ and national newspaper El Universo </t>
-  </si>
-  <si>
-    <t>Awarded A\$10,000 as AI for the project: Superstars in STEM High School Program</t>
-  </si>
-  <si>
-    <t>Unidad Central del Valle</t>
-  </si>
-  <si>
-    <t>Tulúa, Colombia</t>
-  </si>
-  <si>
-    <t>Part time Professor, Engineering faculty, \href{https://www.uceva.edu.co/facultad-de-ingenieria/ingenieria-agropecuaria/}{Agropecuary Engineering program \faExternalLink}</t>
-  </si>
-  <si>
-    <t>Palmira, Colombia</t>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Atomic Energy agency </t>
+  </si>
+  <si>
+    <t>Faisalabad, Pakistan</t>
+  </si>
+  <si>
+    <t>Nov 2023</t>
+  </si>
+  <si>
+    <t>Nov 2023--Nov 2023</t>
+  </si>
+  <si>
+    <t>Invited by the IAEA to train participants from Pakistan, South East Asia and the Pacific Islands in experimental design and phenotypic data analysis at the Regional Training Course in Experimental Design and Data Analysis of Mutant Populations.</t>
+  </si>
+  <si>
+    <t>A Short Introduction to ASReml-R</t>
+  </si>
+  <si>
+    <t>VSN international</t>
+  </si>
+  <si>
+    <t>Analize data of historical trials in the past 50 years from the Cassava Program.</t>
+  </si>
+  <si>
+    <t>Submit report on genetic gain in cassava, beans, rice and forages to Excellence in Breeding through CGIAR Genetic Innovation Initiatives.</t>
+  </si>
+  <si>
+    <t>Develop standard analysis pipelines for advance yield trials, early trials, post-harvest quality data, and genotypic data.</t>
+  </si>
+  <si>
+    <t>Calculate the genetic gain for all breeding populations of the cassava program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support the breeding team through the full breeding cycle from design, and data analysis to publication.  </t>
+  </si>
+  <si>
+    <t>Collaborate with the OneCG Biometrics Group to develop data analysis tools.</t>
   </si>
   <si>
     <t>The Alliance Bioversity International and CIAT - Manpower group</t>
   </si>
   <si>
-    <t>Agroindustrial Engineering</t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia Sede Palmira</t>
-  </si>
-  <si>
-    <t>MSc. Agricultural Sciences</t>
-  </si>
-  <si>
-    <t>Best master Thesis Award Laureate (2019)</t>
-  </si>
-  <si>
-    <t>\textbf{Thesis}: Caracterización de oleorresinas de ají Tabasco y Cayenne bajo diferentes niveles de nitrógeno y humedad en el suelo \href{https://repositorio.unal.edu.co/handle/unal/76744}{\faExternalLink}</t>
-  </si>
-  <si>
-    <t>Research Assistant Fellow, Quality postharvest lab, Cassava program</t>
-  </si>
-  <si>
-    <t>Provide support for processing raw roots, textural analysis and optimal cooking time evaluations of breeding populations of cassava program</t>
-  </si>
-  <si>
-    <t>Statistical data analysis</t>
-  </si>
-  <si>
-    <t>Feb 2022</t>
-  </si>
-  <si>
-    <t>Trained panellist staff on sensory attributes of boiled cassava roots and  constitude the first sensory panel of breeding cassava program.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide support for data clean, curation, statistical analysis and modelling of RTB Foods project data derived </t>
-  </si>
-  <si>
-    <t>Dec 2021--Feb 2022</t>
-  </si>
-  <si>
-    <t>Phenotype database curation/management</t>
-  </si>
-  <si>
-    <t>Linux (intermediate)</t>
-  </si>
-  <si>
-    <t>Aug 2020--Present</t>
-  </si>
-  <si>
-    <t>Part time Professor</t>
-  </si>
-  <si>
-    <t>Phenotypic modelling of multi-enviroment trials</t>
-  </si>
-  <si>
-    <t>Genomic Prediction and Selection</t>
-  </si>
-  <si>
-    <t>NextGen Cassava Breeding Project</t>
-  </si>
-  <si>
-    <t>Complete Python Developer in 2021: Zero to Mastery</t>
-  </si>
-  <si>
-    <t>Udemy</t>
-  </si>
-  <si>
-    <t>Design of experiments for optimization</t>
-  </si>
-  <si>
-    <t>Wageningen University</t>
-  </si>
-  <si>
-    <t>Linear mixed models</t>
-  </si>
-  <si>
-    <t>Invited to speak at the 1 st Ibero-American Congress on Agrifood Sciences, SENA</t>
-  </si>
-  <si>
-    <t>Agro-industrial trends in the uses of capsicum species</t>
-  </si>
-  <si>
-    <t>Jun 2022</t>
-  </si>
-  <si>
-    <t>Jul 2022</t>
-  </si>
-  <si>
-    <t>Jul 2022--Present</t>
-  </si>
-  <si>
-    <t>Dec 2020--Jun 2022</t>
-  </si>
-  <si>
-    <t>Curation and analysis of historical data in the past 50 years from the Cassava Program.</t>
-  </si>
-  <si>
-    <t>Research Assistant Fellow</t>
-  </si>
-  <si>
-    <t>Develop the standard analysis pipelines for yield trial data, quality data and genotypic data.</t>
-  </si>
-  <si>
-    <t>Statistical data analyst,  Cassava program</t>
-  </si>
-  <si>
-    <t>The Alliance Bioversity International and CIAT</t>
-  </si>
-  <si>
-    <t>Part time Graduate Professor, Engineering faculty, \href{https://www.palmira.unal.edu.co/DoctCTAlimentos/}{PhD program: Food science ant Technology \faExternalLink}</t>
-  </si>
-  <si>
-    <t>July 2023</t>
-  </si>
-  <si>
-    <t>Aug 2022</t>
-  </si>
-  <si>
-    <t>Oct 2022</t>
-  </si>
-  <si>
-    <t>Statistical analysis of Hass avocado demonstration plots in Roldanillo municipality.</t>
-  </si>
-  <si>
-    <t>Statistical analysis of blackberry crop demonstration plots located in the municipality of Pradera</t>
-  </si>
-  <si>
-    <t>Calculating the genetic gain for all the breeding populations the Cassava Program has created.</t>
-  </si>
-  <si>
-    <t>Python (intermediate)</t>
-  </si>
-  <si>
-    <t>Quarto</t>
-  </si>
-  <si>
-    <t>Shiny</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>GitHub</t>
-  </si>
-  <si>
-    <t>Feb 2020--Jul 2023</t>
-  </si>
-  <si>
-    <t>Jul 2023</t>
-  </si>
-  <si>
-    <t>Engineering and Administration faculty, PhD program: Food science ant Technology, courses included: Analysis and Experimental design</t>
-  </si>
-  <si>
-    <t>Engineering faculty, Agropecuary engineering program, courses included: Research tools I and Experimental design with R programming</t>
-  </si>
-  <si>
-    <t>Data Bootcamp for Genomic Prediction in Plant Breeding</t>
-  </si>
-  <si>
-    <t>University of Minnesota</t>
-  </si>
-  <si>
-    <t>Ghent, Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical data analyst, Proyecto Incremento de la competitividad sostenible en la agricultura de ladera en todo el departamento, Valle del Cauca, Occidente. </t>
-  </si>
-  <si>
-    <t>Universidad Nacional de Colombia Sede Palmira.</t>
-  </si>
-  <si>
-    <t>Unidad Central del Valle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidad Central del Valle  </t>
-  </si>
-  <si>
-    <t>Visiting professor, International Sustainable Agriculture Training Course -\href{https://www.uceva.edu.co/facultades/facultad-de-ingenieria/noticiasfacultadingenieria/pregrado-en-agropecuaria-lidera-curso-internacional-en-formacion-agropecuaria-sostenible/}{R programming module.\faExternalLink}</t>
-  </si>
-  <si>
-    <t>Statistical data analyst - Cassava program. \href{https://alliancebioversityciat.org/who-we-are/luis-fernando-delgado}{\faExternalLink}</t>
+    <t>Data scientist,  Cassava program</t>
+  </si>
+  <si>
+    <t>Training of panelists on the sensory attributes of cooked cassava roots and establishment of the first sensory panel of the cassava breeding program.</t>
+  </si>
+  <si>
+    <t>Provide support for raw root processing, textural analysis, and optimal cooking time evaluations of breeding populations of the cassava program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide support for data cleaning, curation, and statistical analysis of RTB Foods project data. </t>
+  </si>
+  <si>
+    <t>Assessing Boiled Cassava Cooking time: Mattson cooker replaces subjective fork detection method on boiled cassava roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented at the RTBfoods Webinar \href{https://youtu.be/lfdarLZkFto?si=MR3D2FROhJE2NeG6}{See recording \faExternalLink} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster presentation at 19th International Triennial Symposium of the International Society for Tropical Root Crops (ISTRC) </t>
+  </si>
+  <si>
+    <t>Mattson cooker improves the accuracy of cassava cooking time evaluation​, Nairobi, Kenya</t>
+  </si>
+  <si>
+    <t>Statistical analysis of Hass avocado demonstration plots in the municipality of Roldanillo.</t>
+  </si>
+  <si>
+    <t>Statistical analysis of blackberry crop demonstration plots in the municipality of Pradera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management and storage of data analysis in the Cassava2050 gitHub account \href{https://github.com/Cassava2050}{See GitHub \faExternalLink} </t>
+  </si>
+  <si>
+    <t>Statistical data analyst</t>
+  </si>
+  <si>
+    <t>Universidad Unidad Central del Valle Cauca</t>
+  </si>
+  <si>
+    <t>Provide teaching at the Faculty of Engineering and Administration, PhD program: Food Science and Technology, courses include: Analysis and Experimental Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide teaching at the Faculty of Engineering, Agricultural Engineering Course, including subjects: Research Tools I and Experimental Design with R Programming. </t>
   </si>
 </sst>
 </file>
@@ -1290,19 +1319,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1B3CC-1472-8E44-9C15-09D3FC2792ED}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="120.375" customWidth="1"/>
+    <col min="1" max="1" width="120.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1322,113 +1351,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F7" s="1"/>
+      <c r="F3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1438,20 +1395,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2637CF-4597-3449-ABB6-A2E34950A21B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1463,73 +1420,87 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="D3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
       </c>
       <c r="D4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
       </c>
       <c r="D5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
       </c>
       <c r="D6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7">
         <v>2021</v>
       </c>
     </row>
@@ -1544,12 +1515,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
@@ -1566,52 +1537,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1627,13 +1598,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -1647,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1717,7 +1688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1731,21 +1702,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1730,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +1744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1758,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1801,7 +1772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1815,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1829,7 +1800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1843,7 +1814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1857,7 +1828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1871,7 +1842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1885,7 +1856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1912,9 +1883,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
@@ -1928,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1942,7 +1913,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1956,7 +1927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1970,7 +1941,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1984,7 +1955,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2008,12 +1979,12 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2036,9 +2007,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2056,10 +2027,10 @@
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2082,7 +2053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2102,7 +2073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2125,9 +2096,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
@@ -2136,16 +2107,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -2168,7 +2139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2191,7 +2162,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -2214,7 +2185,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2237,7 +2208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>112</v>
       </c>
@@ -2257,7 +2228,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2280,7 +2251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2303,7 +2274,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -2326,7 +2297,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -2349,7 +2320,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -2372,7 +2343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2395,7 +2366,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>134</v>
       </c>
@@ -2418,7 +2389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -2441,7 +2412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -2464,7 +2435,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -2487,7 +2458,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -2510,7 +2481,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>151</v>
       </c>
@@ -2540,15 +2511,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A8243C-FE0E-ED41-84A9-46B817DC41A8}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="145.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>173</v>
       </c>
@@ -2562,326 +2536,354 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8">
+        <v>2017</v>
+      </c>
+      <c r="D8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9" t="s">
         <v>175</v>
       </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>178</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>179</v>
       </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C10">
+        <v>2019</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>180</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B11" t="s">
         <v>181</v>
-      </c>
-      <c r="C4">
-        <v>2020</v>
-      </c>
-      <c r="D4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5">
-        <v>2020</v>
-      </c>
-      <c r="D5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6">
-        <v>2019</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7">
-        <v>2019</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8">
-        <v>2018</v>
-      </c>
-      <c r="D8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9">
-        <v>2018</v>
-      </c>
-      <c r="D9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10">
-        <v>2018</v>
-      </c>
-      <c r="D10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>194</v>
-      </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>258</v>
-      </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="C13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C16">
         <v>2017</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19">
         <v>2016</v>
       </c>
-      <c r="D17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18">
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20">
         <v>2016</v>
       </c>
-      <c r="D18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19">
-        <v>2015</v>
-      </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>201</v>
-      </c>
-      <c r="B20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20">
-        <v>2015</v>
-      </c>
       <c r="D20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C21">
         <v>2015</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C22">
         <v>2015</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C23">
+        <v>2015</v>
+      </c>
+      <c r="D23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>2015</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25">
         <v>2014</v>
       </c>
-      <c r="D23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24">
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26">
         <v>2014</v>
       </c>
-      <c r="D24" t="s">
-        <v>182</v>
+      <c r="D26" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2891,24 +2893,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2522634-3670-EB4F-A94A-C1193288D818}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="125.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2931,188 +2933,280 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" t="s">
-        <v>273</v>
+      <c r="E13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3125,67 +3219,67 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3195,15 +3289,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5338EAEC-67F8-9247-8A3F-9BAF40D7A39F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3226,15 +3320,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>167</v>
@@ -3243,36 +3337,60 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>234</v>
       </c>
-      <c r="C3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G3" t="s">
-        <v>282</v>
+      <c r="E4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cv-main/data/cv_data.xlsx
+++ b/cv-main/data/cv_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/luis_delgado_cgiar_org/Documents/Data Analysis/Curriculum-Vitae/cv-main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C7F07B88-FDF1-4B7E-907A-4340CBC99998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F578AC84-2DD6-45D9-A40F-4EE436B11DB6}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{C7F07B88-FDF1-4B7E-907A-4340CBC99998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C573CD2E-F5CA-45E6-B67B-9779D8164AC4}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="1500" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
+    <workbookView xWindow="44880" yWindow="1500" windowWidth="29040" windowHeight="15840" xr2:uid="{70653332-357D-C843-A68B-418AF4257DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="appointments" sheetId="1" r:id="rId1"/>
@@ -713,9 +713,6 @@
     <t>Tulúa, Colombia</t>
   </si>
   <si>
-    <t>Part time Professor, Engineering faculty, \href{https://www.uceva.edu.co/facultad-de-ingenieria/ingenieria-agropecuaria/}{Agropecuary Engineering program \faExternalLink}</t>
-  </si>
-  <si>
     <t>Palmira, Colombia</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
   </si>
   <si>
     <t>Aug 2020--Present</t>
-  </si>
-  <si>
-    <t>Part time Professor</t>
   </si>
   <si>
     <t>Phenotypic modelling of multi-enviroment trials</t>
@@ -865,9 +859,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Professor</t>
-  </si>
-  <si>
     <t xml:space="preserve">International Atomic Energy agency </t>
   </si>
   <si>
@@ -953,6 +944,15 @@
   </si>
   <si>
     <t xml:space="preserve">Provide teaching at the Faculty of Engineering, Agricultural Engineering Course, including subjects: Research Tools I and Experimental Design with R Programming. </t>
+  </si>
+  <si>
+    <t>Lecturer</t>
+  </si>
+  <si>
+    <t>Guest lecturer</t>
+  </si>
+  <si>
+    <t>Lecturer, Engineering faculty, \href{https://www.uceva.edu.co/facultad-de-ingenieria/ingenieria-agropecuaria/}{Agropecuary Engineering program \faExternalLink}</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E1B3CC-1472-8E44-9C15-09D3FC2792ED}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1353,16 +1353,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>221</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
         <v>255</v>
-      </c>
-      <c r="B2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>2023</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
         <v>114</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
@@ -1478,10 +1478,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>114</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>114</v>
@@ -1539,50 +1539,50 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>2019</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2538,100 +2538,100 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3">
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>2023</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6">
         <v>2022</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2935,278 +2935,278 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" t="s">
         <v>229</v>
       </c>
-      <c r="F12" t="s">
-        <v>230</v>
-      </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" t="s">
         <v>229</v>
       </c>
-      <c r="F13" t="s">
-        <v>230</v>
-      </c>
       <c r="G13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3240,13 +3240,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>208</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3254,21 +3254,21 @@
         <v>209</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3276,7 +3276,7 @@
         <v>211</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
         <v>210</v>
@@ -3291,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5338EAEC-67F8-9247-8A3F-9BAF40D7A39F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
         <v>221</v>
@@ -3337,56 +3337,56 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" t="s">
         <v>273</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>274</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
